--- a/DATA_goal/Junction_Flooding_339.xlsx
+++ b/DATA_goal/Junction_Flooding_339.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>45020.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>2.16</v>
+        <v>21.62</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.45</v>
+        <v>14.46</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.45</v>
+        <v>4.46</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>4.54</v>
+        <v>45.36</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>3.75</v>
+        <v>37.51</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.7</v>
+        <v>17.01</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>5.57</v>
+        <v>55.7</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.62</v>
+        <v>26.18</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>1.11</v>
+        <v>11.07</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.7</v>
+        <v>17.02</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.8</v>
+        <v>18.05</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.89</v>
+        <v>18.88</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.54</v>
+        <v>5.43</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.69</v>
+        <v>16.92</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.37</v>
+        <v>23.75</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.42</v>
+        <v>14.24</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.37</v>
+        <v>3.74</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.46</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>25.02</v>
+        <v>250.17</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>4.71</v>
+        <v>47.09</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.56</v>
+        <v>15.62</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>3.11</v>
+        <v>31.15</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.62</v>
+        <v>16.25</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.24</v>
+        <v>2.41</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>2.77</v>
+        <v>27.66</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.38</v>
+        <v>13.79</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.28</v>
+        <v>12.75</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.45</v>
+        <v>14.55</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.84</v>
+        <v>18.41</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.36</v>
+        <v>3.64</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>4.92</v>
+        <v>49.22</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.86</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.95</v>
+        <v>19.52</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>45020.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.96</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.65</v>
+        <v>6.46</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.16</v>
+        <v>1.62</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>2.02</v>
+        <v>20.24</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.67</v>
+        <v>16.74</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.76</v>
+        <v>7.56</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>3.22</v>
+        <v>32.22</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.16</v>
+        <v>11.63</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.49</v>
+        <v>4.92</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.74</v>
+        <v>7.44</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.82</v>
+        <v>8.19</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.85</v>
+        <v>8.470000000000001</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.24</v>
+        <v>2.42</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.75</v>
+        <v>7.52</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.05</v>
+        <v>10.54</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.66</v>
+        <v>6.58</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.16</v>
+        <v>1.56</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.09</v>
+        <v>0.87</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>10.71</v>
+        <v>107.15</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>2.12</v>
+        <v>21.17</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.94</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.39</v>
+        <v>13.87</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.74</v>
+        <v>7.45</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.11</v>
+        <v>1.13</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.51</v>
+        <v>15.05</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.61</v>
+        <v>6.13</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.57</v>
+        <v>5.73</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.66</v>
+        <v>6.59</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.84</v>
+        <v>8.42</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.29</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>2.93</v>
+        <v>29.33</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.38</v>
+        <v>3.77</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.87</v>
+        <v>8.68</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>45020.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>2.4</v>
+        <v>24.02</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.76</v>
+        <v>17.57</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.16</v>
+        <v>1.59</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>5.18</v>
+        <v>51.82</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>4.29</v>
+        <v>42.85</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.89</v>
+        <v>18.9</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>7.07</v>
+        <v>70.70999999999999</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2.91</v>
+        <v>29.09</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.29</v>
+        <v>12.85</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.92</v>
+        <v>19.23</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>2.09</v>
+        <v>20.9</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>2.19</v>
+        <v>21.94</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.6</v>
+        <v>6.04</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.88</v>
+        <v>18.8</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>2.67</v>
+        <v>26.7</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.59</v>
+        <v>15.86</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.11</v>
+        <v>1.14</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.1</v>
+        <v>1.04</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>27.88</v>
+        <v>278.81</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>5.25</v>
+        <v>52.52</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.74</v>
+        <v>17.35</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>3.52</v>
+        <v>35.23</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.87</v>
+        <v>18.71</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.26</v>
+        <v>2.58</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>3.46</v>
+        <v>34.59</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.53</v>
+        <v>15.33</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.37</v>
+        <v>13.67</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.6</v>
+        <v>16.02</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>2.19</v>
+        <v>21.86</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.78</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>6.4</v>
+        <v>63.98</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.97</v>
+        <v>9.75</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>2.17</v>
+        <v>21.69</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>45020.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.24</v>
+        <v>2.4</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.15</v>
+        <v>1.45</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.64</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0.49</v>
+        <v>4.9</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0.41</v>
+        <v>4.05</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.19</v>
+        <v>1.89</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>1.55</v>
+        <v>15.55</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.29</v>
+        <v>2.91</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.13</v>
+        <v>1.28</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.17</v>
+        <v>1.72</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.21</v>
+        <v>2.07</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.2</v>
+        <v>2.05</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.63</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.19</v>
+        <v>1.88</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.27</v>
+        <v>2.74</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.18</v>
+        <v>1.8</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.3</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>2.14</v>
+        <v>21.42</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>0.58</v>
+        <v>5.8</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.17</v>
+        <v>1.74</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>0.38</v>
+        <v>3.81</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.2</v>
+        <v>2.04</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.35</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>0.67</v>
+        <v>6.71</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.15</v>
+        <v>1.53</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.15</v>
+        <v>1.52</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.17</v>
+        <v>1.73</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.21</v>
+        <v>2.09</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>1.47</v>
+        <v>14.71</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.87</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.22</v>
+        <v>2.18</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_339.xlsx
+++ b/DATA_goal/Junction_Flooding_339.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,91 +655,91 @@
         <v>45020.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>21.62</v>
+        <v>21.619</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>14.46</v>
+        <v>14.458</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.46</v>
+        <v>4.456</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>45.36</v>
+        <v>45.361</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>37.51</v>
+        <v>37.513</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>17.01</v>
+        <v>17.013</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>55.7</v>
+        <v>55.703</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>26.18</v>
+        <v>26.178</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>11.07</v>
+        <v>11.065</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>17.02</v>
+        <v>17.024</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>18.05</v>
+        <v>18.048</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>18.88</v>
+        <v>18.877</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>5.43</v>
+        <v>5.432</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>16.92</v>
+        <v>16.918</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>23.75</v>
+        <v>23.745</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>14.24</v>
+        <v>14.242</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.74</v>
+        <v>3.744</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.46</v>
+        <v>2.457</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>250.17</v>
+        <v>250.169</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>47.09</v>
+        <v>47.091</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>15.62</v>
+        <v>15.616</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>31.15</v>
+        <v>31.148</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>16.25</v>
+        <v>16.247</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.41</v>
+        <v>2.407</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>27.66</v>
+        <v>27.662</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>13.79</v>
+        <v>13.794</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>12.75</v>
+        <v>12.753</v>
       </c>
       <c r="AC2" s="4" t="n">
         <v>14.55</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>18.41</v>
+        <v>18.409</v>
       </c>
       <c r="AE2" s="4" t="n">
         <v>3.64</v>
@@ -748,10 +748,10 @@
         <v>49.22</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>8.640000000000001</v>
+        <v>8.641</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>19.52</v>
+        <v>19.523</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>45020.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>9.609999999999999</v>
+        <v>9.609</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>6.46</v>
+        <v>6.465</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.62</v>
+        <v>1.624</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>20.24</v>
+        <v>20.238</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>16.74</v>
+        <v>16.739</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>7.56</v>
+        <v>7.562</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>32.22</v>
+        <v>32.216</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>11.63</v>
+        <v>11.635</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>4.92</v>
+        <v>4.917</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>7.44</v>
+        <v>7.436</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>8.19</v>
+        <v>8.195</v>
       </c>
       <c r="M3" s="4" t="n">
         <v>8.470000000000001</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.42</v>
+        <v>2.419</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>7.52</v>
+        <v>7.519</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>10.54</v>
+        <v>10.537</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>6.58</v>
+        <v>6.579</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.56</v>
+        <v>1.556</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.87</v>
+        <v>0.869</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>107.15</v>
+        <v>107.146</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>21.17</v>
+        <v>21.174</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>6.94</v>
+        <v>6.941</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>13.87</v>
+        <v>13.868</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>7.45</v>
+        <v>7.446</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.13</v>
+        <v>1.133</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>15.05</v>
+        <v>15.051</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>6.13</v>
+        <v>6.131</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>5.73</v>
+        <v>5.729</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>6.59</v>
+        <v>6.595</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>8.42</v>
+        <v>8.423999999999999</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.29</v>
+        <v>1.294</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>29.33</v>
+        <v>29.333</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>3.77</v>
+        <v>3.769</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>8.68</v>
+        <v>8.678000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>45020.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>24.02</v>
+        <v>24.021</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>17.57</v>
+        <v>17.567</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.59</v>
+        <v>1.592</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>51.82</v>
+        <v>51.825</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>42.85</v>
+        <v>42.851</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>18.9</v>
+        <v>18.904</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>70.70999999999999</v>
+        <v>70.706</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>29.09</v>
+        <v>29.086</v>
       </c>
       <c r="J4" s="4" t="n">
         <v>12.85</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>19.23</v>
+        <v>19.233</v>
       </c>
       <c r="L4" s="4" t="n">
         <v>20.9</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>21.94</v>
+        <v>21.941</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>6.04</v>
+        <v>6.038</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>18.8</v>
+        <v>18.798</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>26.7</v>
+        <v>26.705</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>15.86</v>
+        <v>15.864</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.14</v>
+        <v>1.142</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>1.04</v>
+        <v>1.041</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>278.81</v>
+        <v>278.811</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>52.52</v>
+        <v>52.515</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>17.35</v>
+        <v>17.351</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>35.23</v>
+        <v>35.232</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>18.71</v>
+        <v>18.715</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.58</v>
+        <v>2.585</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>34.59</v>
+        <v>34.594</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>15.33</v>
+        <v>15.326</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>13.67</v>
+        <v>13.673</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>16.02</v>
+        <v>16.018</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>21.86</v>
+        <v>21.859</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.78</v>
+        <v>0.784</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>63.98</v>
+        <v>63.982</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>9.75</v>
+        <v>9.749000000000001</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>21.69</v>
+        <v>21.693</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>2.18</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>45020.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>6.94</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>20.64</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>17.06</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>7.56</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>27.59</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>11.63</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>7.61</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>8.380000000000001</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>8.74</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.41</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>7.52</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>107.09</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>20.89</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>6.94</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>7.51</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>13.19</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>5.51</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>6.45</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>24.62</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>8.68</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_339.xlsx
+++ b/DATA_goal/Junction_Flooding_339.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,28 +967,28 @@
         <v>45020.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>2.4</v>
+        <v>2.402</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.45</v>
+        <v>1.453</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.64</v>
+        <v>0.644</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>4.9</v>
+        <v>4.904</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>4.05</v>
+        <v>4.051</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.89</v>
+        <v>1.894</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>15.55</v>
+        <v>15.545</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.91</v>
+        <v>2.909</v>
       </c>
       <c r="J5" s="4" t="n">
         <v>1.28</v>
@@ -997,10 +997,10 @@
         <v>1.72</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>2.07</v>
+        <v>2.074</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>2.05</v>
+        <v>2.045</v>
       </c>
       <c r="N5" s="4" t="n">
         <v>0.63</v>
@@ -1009,61 +1009,165 @@
         <v>1.88</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>2.74</v>
+        <v>2.739</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.8</v>
+        <v>1.803</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.71</v>
+        <v>0.711</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.3</v>
+        <v>0.298</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>21.42</v>
+        <v>21.418</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>5.8</v>
+        <v>5.795</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.74</v>
+        <v>1.735</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>3.81</v>
+        <v>3.811</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>2.04</v>
+        <v>2.037</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.35</v>
+        <v>0.348</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>6.71</v>
+        <v>6.709</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.53</v>
+        <v>1.533</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.52</v>
+        <v>1.524</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.73</v>
+        <v>1.734</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>2.09</v>
+        <v>2.094</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>14.71</v>
+        <v>14.707</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.87</v>
+        <v>0.869</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>2.18</v>
+        <v>2.177</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>45020.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>9.609999999999999</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>6.94</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>20.64</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>17.06</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>7.56</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>27.59</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>11.63</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>7.61</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>8.380000000000001</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>8.74</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>7.52</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>107.09</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>20.89</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>6.94</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>7.51</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>13.19</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>6.13</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>5.51</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>24.62</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>8.68</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_339.xlsx
+++ b/DATA_goal/Junction_Flooding_339.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,28 +967,28 @@
         <v>45020.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>2.402</v>
+        <v>2.4</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.453</v>
+        <v>1.45</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.644</v>
+        <v>0.64</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>4.904</v>
+        <v>4.9</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>4.051</v>
+        <v>4.05</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.894</v>
+        <v>1.89</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>15.545</v>
+        <v>15.55</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.909</v>
+        <v>2.91</v>
       </c>
       <c r="J5" s="4" t="n">
         <v>1.28</v>
@@ -997,10 +997,10 @@
         <v>1.72</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>2.074</v>
+        <v>2.07</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>2.045</v>
+        <v>2.05</v>
       </c>
       <c r="N5" s="4" t="n">
         <v>0.63</v>
@@ -1009,165 +1009,61 @@
         <v>1.88</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>2.739</v>
+        <v>2.74</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.803</v>
+        <v>1.8</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.711</v>
+        <v>0.71</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.298</v>
+        <v>0.3</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>21.418</v>
+        <v>21.42</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>5.795</v>
+        <v>5.8</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.735</v>
+        <v>1.74</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>3.811</v>
+        <v>3.81</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>2.037</v>
+        <v>2.04</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.348</v>
+        <v>0.35</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>6.709</v>
+        <v>6.71</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.533</v>
+        <v>1.53</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.524</v>
+        <v>1.52</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.734</v>
+        <v>1.73</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>2.094</v>
+        <v>2.09</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5620000000000001</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>14.707</v>
+        <v>14.71</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.869</v>
+        <v>0.87</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>2.177</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>45020.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>6.94</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>20.64</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>17.06</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>7.56</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>27.59</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>11.63</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>7.61</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>8.380000000000001</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>8.74</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.41</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>7.52</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>107.09</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>20.89</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>6.94</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>7.51</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>13.19</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>5.51</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>6.45</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>24.62</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>8.68</v>
+        <v>2.18</v>
       </c>
     </row>
   </sheetData>
